--- a/Data/Panels/Sices GC600.xlsx
+++ b/Data/Panels/Sices GC600.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Desktop\Nexus Config Tool V1.0\Data\Panels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\NexusConfigTool\Data\Panels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632BD326-617B-4694-AD3E-14282E534734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D7195-88AB-4692-BD04-FE51B6F30A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6386B56-2C02-473A-945D-414CAED0EE55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6386B56-2C02-473A-945D-414CAED0EE55}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="209">
-  <si>
-    <t>Sheet type</t>
-  </si>
-  <si>
-    <t>Modbus RTU Master</t>
-  </si>
-  <si>
-    <t>Data access list</t>
-  </si>
-  <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>Generatormålinger</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="194">
   <si>
     <t>Slaveaddresse</t>
   </si>
@@ -113,9 +98,6 @@
     <t>Decimals</t>
   </si>
   <si>
-    <t>Data port</t>
-  </si>
-  <si>
     <t>Genset1</t>
   </si>
   <si>
@@ -143,18 +125,12 @@
     <t>Mains/busbars: voltage L2-L3</t>
   </si>
   <si>
-    <t>Modbus RTU Master settings</t>
-  </si>
-  <si>
     <t>VoltageL1L3</t>
   </si>
   <si>
     <t>Mains/busbars: voltage L3-L1</t>
   </si>
   <si>
-    <t>Protocol mode</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -167,28 +143,7 @@
     <t>Hz</t>
   </si>
   <si>
-    <t>Request timeout</t>
-  </si>
-  <si>
     <t>Generator</t>
-  </si>
-  <si>
-    <t>Slave byte order settings</t>
-  </si>
-  <si>
-    <t>Slave no.</t>
-  </si>
-  <si>
-    <t>16 bit</t>
-  </si>
-  <si>
-    <t>32 bit</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Modbus</t>
   </si>
   <si>
     <t>CurrentL1</t>
@@ -672,49 +627,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot; ms&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -728,7 +644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,82 +653,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -833,59 +682,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="138">
@@ -2599,161 +2408,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B692C-234F-48C3-A72A-363D80B633B9}">
-  <dimension ref="A1:Y168"/>
+  <dimension ref="F2:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="D3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+    <row r="2" spans="6:25">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="F1" s="16" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    </row>
+    <row r="3" spans="6:25">
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="str">
         <f t="shared" ref="L3:L66" si="0">_xlfn.TEXTJOIN(".",TRUE,I3,J3,K3)</f>
@@ -2761,18 +2524,18 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="3" t="b">
@@ -2785,22 +2548,22 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:25">
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2808,18 +2571,18 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="3" t="b">
@@ -2832,28 +2595,22 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+    <row r="5" spans="6:25">
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2861,18 +2618,18 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="3" t="b">
@@ -2885,44 +2642,38 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+    <row r="6" spans="6:25">
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Genset1.Mains.Frequency</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -2938,28 +2689,22 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="6:25">
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2967,13 +2712,13 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -2989,26 +2734,22 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+    <row r="8" spans="6:25">
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3016,13 +2757,13 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -3038,28 +2779,22 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+    <row r="9" spans="6:25">
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3067,13 +2802,13 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -3089,50 +2824,38 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>49</v>
-      </c>
+    <row r="10" spans="6:25">
       <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Genset1.Generator.Frequency</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3148,32 +2871,22 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="11" spans="6:25">
       <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3181,13 +2894,13 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3203,26 +2916,22 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+    <row r="12" spans="6:25">
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3230,13 +2939,13 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -3252,22 +2961,22 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:25">
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3275,13 +2984,13 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -3297,22 +3006,22 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:25">
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3320,13 +3029,13 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3342,22 +3051,22 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:25">
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3365,13 +3074,13 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3387,22 +3096,22 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:25">
       <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>50</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3410,13 +3119,13 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3432,22 +3141,22 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:25">
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3455,13 +3164,13 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -3477,22 +3186,22 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:25">
       <c r="F18" s="2"/>
       <c r="G18" s="2">
         <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3500,13 +3209,13 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -3522,22 +3231,22 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:25">
       <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3545,13 +3254,13 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -3567,22 +3276,22 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:25">
       <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>52</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3590,13 +3299,13 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -3612,22 +3321,22 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:25">
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3635,13 +3344,13 @@
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -3657,22 +3366,22 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:25">
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <v>34</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3680,13 +3389,13 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -3702,22 +3411,22 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:25">
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <v>44</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3725,13 +3434,13 @@
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -3747,22 +3456,22 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:25">
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>54</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3770,13 +3479,13 @@
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -3792,22 +3501,22 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:25">
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>64</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3815,13 +3524,13 @@
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3837,35 +3546,35 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:25">
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Genset1.Generator.CosPhi</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3882,22 +3591,22 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:25">
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <v>131</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3905,7 +3614,7 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3923,38 +3632,38 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:25">
       <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>188</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Genset1.Engine.OilPressure</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3970,22 +3679,22 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:25">
       <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>77</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3993,13 +3702,13 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -4015,22 +3724,22 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:25">
       <c r="F30" s="2"/>
       <c r="G30" s="2">
         <v>126</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4038,7 +3747,7 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -4056,22 +3765,22 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:25">
       <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>127</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4079,7 +3788,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -4097,22 +3806,22 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:25">
       <c r="F32" s="2"/>
       <c r="G32" s="2">
         <v>128</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4120,7 +3829,7 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -4138,22 +3847,22 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:25">
       <c r="F33" s="2"/>
       <c r="G33" s="2">
         <v>121</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4161,7 +3870,7 @@
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4179,22 +3888,22 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:25">
       <c r="F34" s="2"/>
       <c r="G34" s="2">
         <v>122</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4202,7 +3911,7 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4220,22 +3929,22 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:25">
       <c r="F35" s="2"/>
       <c r="G35" s="2">
         <v>123</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4243,7 +3952,7 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4261,22 +3970,22 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:25">
       <c r="F36" s="2"/>
       <c r="G36" s="2">
         <v>144</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4284,7 +3993,7 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -4302,22 +4011,22 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:25">
       <c r="F37" s="2"/>
       <c r="G37" s="2">
         <v>129</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4325,7 +4034,7 @@
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4343,22 +4052,22 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:25">
       <c r="F38" s="2"/>
       <c r="G38" s="2">
         <v>304</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4366,7 +4075,7 @@
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4384,22 +4093,22 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:25">
       <c r="F39" s="2"/>
       <c r="G39" s="2">
         <v>305</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4407,7 +4116,7 @@
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -4425,22 +4134,22 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:25">
       <c r="F40" s="2"/>
       <c r="G40" s="2">
         <v>306</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="L40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4448,7 +4157,7 @@
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4466,22 +4175,22 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:25">
       <c r="F41" s="2"/>
       <c r="G41" s="2">
         <v>307</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4489,7 +4198,7 @@
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4507,22 +4216,22 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:25">
       <c r="F42" s="2"/>
       <c r="G42" s="2">
         <v>308</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4530,7 +4239,7 @@
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -4548,22 +4257,22 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:25">
       <c r="F43" s="2"/>
       <c r="G43" s="2">
         <v>309</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4571,7 +4280,7 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4589,22 +4298,22 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:25">
       <c r="F44" s="2"/>
       <c r="G44" s="2">
         <v>310</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4612,7 +4321,7 @@
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -4630,22 +4339,22 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:25">
       <c r="F45" s="2"/>
       <c r="G45" s="2">
         <v>311</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="L45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4653,7 +4362,7 @@
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4671,22 +4380,22 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:25">
       <c r="F46" s="2"/>
       <c r="G46" s="2">
         <v>312</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4694,7 +4403,7 @@
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4712,22 +4421,22 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:25">
       <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>313</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4735,7 +4444,7 @@
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4753,35 +4462,35 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:25">
       <c r="F48" s="2"/>
       <c r="G48" s="2">
         <v>314</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Genset1.Engine.Wratio</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -4798,22 +4507,22 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:25">
       <c r="F49" s="2"/>
       <c r="G49" s="2">
         <v>315</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4821,7 +4530,7 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4839,22 +4548,22 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:25">
       <c r="F50" s="2"/>
       <c r="G50" s="2">
         <v>316</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4862,7 +4571,7 @@
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4880,22 +4589,22 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:25">
       <c r="F51" s="2"/>
       <c r="G51" s="2">
         <v>317</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4903,7 +4612,7 @@
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -4921,22 +4630,22 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:25">
       <c r="F52" s="2"/>
       <c r="G52" s="2">
         <v>318</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="L52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4944,7 +4653,7 @@
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -4962,22 +4671,22 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:25">
       <c r="F53" s="2"/>
       <c r="G53" s="2">
         <v>319</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4985,7 +4694,7 @@
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -5003,22 +4712,22 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:25">
       <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>320</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="L54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5026,7 +4735,7 @@
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -5044,22 +4753,22 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:25">
       <c r="F55" s="2"/>
       <c r="G55" s="2">
         <v>321</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5067,7 +4776,7 @@
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -5085,22 +4794,22 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:25">
       <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>483</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5108,7 +4817,7 @@
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -5126,22 +4835,22 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:25">
       <c r="F57" s="2"/>
       <c r="G57" s="2">
         <v>575</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5149,7 +4858,7 @@
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -5167,22 +4876,22 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:25">
       <c r="F58" s="2"/>
       <c r="G58" s="2">
         <v>548</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5190,7 +4899,7 @@
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -5208,22 +4917,22 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:25">
       <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>1822</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5231,7 +4940,7 @@
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5249,22 +4958,22 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:25">
       <c r="F60" s="2"/>
       <c r="G60" s="2">
         <v>1979</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5272,7 +4981,7 @@
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -5290,22 +4999,22 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:25">
       <c r="F61" s="2"/>
       <c r="G61" s="2">
         <v>1978</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5313,7 +5022,7 @@
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -5331,22 +5040,22 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:25">
       <c r="F62" s="2"/>
       <c r="G62" s="2">
         <v>1831</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5354,7 +5063,7 @@
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -5372,22 +5081,22 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:25">
       <c r="F63" s="2"/>
       <c r="G63" s="2">
         <v>1832</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5395,7 +5104,7 @@
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -5413,22 +5122,22 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:25">
       <c r="F64" s="2"/>
       <c r="G64" s="2">
         <v>1833</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5436,7 +5145,7 @@
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -5454,22 +5163,22 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:25">
       <c r="F65" s="2"/>
       <c r="G65" s="2">
         <v>1834</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5477,7 +5186,7 @@
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -5495,22 +5204,22 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:25">
       <c r="F66" s="2"/>
       <c r="G66" s="2">
         <v>544</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5518,7 +5227,7 @@
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -5536,22 +5245,22 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:25">
       <c r="F67" s="2"/>
       <c r="G67" s="2">
         <v>579</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L67" s="3" t="str">
         <f t="shared" ref="L67:L130" si="1">_xlfn.TEXTJOIN(".",TRUE,I67,J67,K67)</f>
@@ -5559,7 +5268,7 @@
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -5577,35 +5286,35 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:25">
       <c r="F68" s="2"/>
       <c r="G68" s="2">
         <v>322</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.VoltageHysteresis</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
@@ -5622,35 +5331,35 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:25">
       <c r="F69" s="2"/>
       <c r="G69" s="2">
         <v>323</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.VoltageHysteresis</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
@@ -5667,35 +5376,35 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:25">
       <c r="F70" s="2"/>
       <c r="G70" s="2">
         <v>324</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="L70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.LowVoltageThreshold</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
@@ -5712,35 +5421,35 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:25">
       <c r="F71" s="2"/>
       <c r="G71" s="2">
         <v>325</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.HighVoltageThreshold</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
@@ -5757,22 +5466,22 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:25">
       <c r="F72" s="2"/>
       <c r="G72" s="2">
         <v>326</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5780,7 +5489,7 @@
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -5798,22 +5507,22 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:25">
       <c r="F73" s="2"/>
       <c r="G73" s="2">
         <v>327</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="L73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5821,7 +5530,7 @@
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -5839,22 +5548,22 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:25">
       <c r="F74" s="2"/>
       <c r="G74" s="2">
         <v>328</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="L74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5862,7 +5571,7 @@
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -5880,22 +5589,22 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:25">
       <c r="F75" s="2"/>
       <c r="G75" s="2">
         <v>329</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L75" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5903,7 +5612,7 @@
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -5921,22 +5630,22 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:25">
       <c r="F76" s="2"/>
       <c r="G76" s="2">
         <v>330</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5944,7 +5653,7 @@
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -5962,22 +5671,22 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:25">
       <c r="F77" s="2"/>
       <c r="G77" s="2">
         <v>331</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5985,7 +5694,7 @@
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -6003,22 +5712,22 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:25">
       <c r="F78" s="2"/>
       <c r="G78" s="2">
         <v>332</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="L78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6026,7 +5735,7 @@
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -6044,22 +5753,22 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:25">
       <c r="F79" s="2"/>
       <c r="G79" s="2">
         <v>333</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6067,7 +5776,7 @@
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -6085,22 +5794,22 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:25">
       <c r="F80" s="2"/>
       <c r="G80" s="2">
         <v>334</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6108,7 +5817,7 @@
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -6126,22 +5835,22 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:25">
       <c r="F81" s="2"/>
       <c r="G81" s="2">
         <v>335</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6149,7 +5858,7 @@
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -6167,22 +5876,22 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:25">
       <c r="F82" s="2"/>
       <c r="G82" s="2">
         <v>336</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6190,7 +5899,7 @@
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -6208,22 +5917,22 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:25">
       <c r="F83" s="2"/>
       <c r="G83" s="2">
         <v>337</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="L83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6231,7 +5940,7 @@
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -6249,22 +5958,22 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:25">
       <c r="F84" s="2"/>
       <c r="G84" s="2">
         <v>338</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6272,7 +5981,7 @@
       </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -6290,22 +5999,22 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:25">
       <c r="F85" s="2"/>
       <c r="G85" s="2">
         <v>339</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="L85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6313,7 +6022,7 @@
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -6331,22 +6040,22 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:25">
       <c r="F86" s="2"/>
       <c r="G86" s="2">
         <v>340</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6354,7 +6063,7 @@
       </c>
       <c r="M86" s="3"/>
       <c r="N86" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -6372,22 +6081,22 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:25">
       <c r="F87" s="2"/>
       <c r="G87" s="2">
         <v>341</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L87" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6395,7 +6104,7 @@
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -6413,22 +6122,22 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:25">
       <c r="F88" s="2"/>
       <c r="G88" s="2">
         <v>342</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6436,7 +6145,7 @@
       </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
@@ -6454,22 +6163,22 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:25">
       <c r="F89" s="2"/>
       <c r="G89" s="2">
         <v>343</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6477,7 +6186,7 @@
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -6495,22 +6204,22 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:25">
       <c r="F90" s="2"/>
       <c r="G90" s="2">
         <v>344</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="L90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6518,7 +6227,7 @@
       </c>
       <c r="M90" s="3"/>
       <c r="N90" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -6536,35 +6245,35 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:25">
       <c r="F91" s="2"/>
       <c r="G91" s="2">
         <v>345</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.StoppedThresholdRPM</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -6581,35 +6290,35 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:25">
       <c r="F92" s="2"/>
       <c r="G92" s="2">
         <v>346</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.RunningThresholdRPM</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -6626,35 +6335,35 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:25">
       <c r="F93" s="2"/>
       <c r="G93" s="2">
         <v>347</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.StoppedThresholdVoltage</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -6671,35 +6380,35 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:25">
       <c r="F94" s="2"/>
       <c r="G94" s="2">
         <v>348</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.RunningThresholdVoltage</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -6716,35 +6425,35 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:25">
       <c r="F95" s="2"/>
       <c r="G95" s="2">
         <v>349</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L95" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.StoppedThresholdFrequency</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
@@ -6761,35 +6470,35 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:25">
       <c r="F96" s="2"/>
       <c r="G96" s="2">
         <v>350</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="L96" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.RunningThresholdFrequency</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
@@ -6806,22 +6515,22 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:25">
       <c r="F97" s="2"/>
       <c r="G97" s="2">
         <v>491</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6829,7 +6538,7 @@
       </c>
       <c r="M97" s="3"/>
       <c r="N97" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -6847,35 +6556,35 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:25">
       <c r="F98" s="2"/>
       <c r="G98" s="2">
         <v>545</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L98" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.FuelSolenoidClosureDelay</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
@@ -6892,35 +6601,35 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:25">
       <c r="F99" s="2"/>
       <c r="G99" s="2">
         <v>1816</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L99" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.LowFrequencyThreshold</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
@@ -6937,35 +6646,35 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:25">
       <c r="F100" s="2"/>
       <c r="G100" s="2">
         <v>1817</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L100" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.HighFrequencyThreshold</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
@@ -6982,35 +6691,35 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:25">
       <c r="F101" s="2"/>
       <c r="G101" s="2">
         <v>1818</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L101" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Mains.VoltageunbalanceThreshold</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
@@ -7027,22 +6736,22 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:25">
       <c r="F102" s="2"/>
       <c r="G102" s="2">
         <v>1819</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L102" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7050,7 +6759,7 @@
       </c>
       <c r="M102" s="3"/>
       <c r="N102" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -7068,35 +6777,35 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:25">
       <c r="F103" s="2"/>
       <c r="G103" s="2">
         <v>353</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L103" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.MinVoltageThreshold</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
@@ -7113,22 +6822,22 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:25">
       <c r="F104" s="2"/>
       <c r="G104" s="2">
         <v>354</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7136,7 +6845,7 @@
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
@@ -7154,35 +6863,35 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:25">
       <c r="F105" s="2"/>
       <c r="G105" s="2">
         <v>355</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="L105" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.MaxVoltageThreshold</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
@@ -7199,22 +6908,22 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:25">
       <c r="F106" s="2"/>
       <c r="G106" s="2">
         <v>356</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7222,7 +6931,7 @@
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
@@ -7240,35 +6949,35 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:25">
       <c r="F107" s="2"/>
       <c r="G107" s="2">
         <v>357</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L107" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.MinFrequencyThreshold</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
@@ -7285,22 +6994,22 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:25">
       <c r="F108" s="2"/>
       <c r="G108" s="2">
         <v>358</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7308,7 +7017,7 @@
       </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
@@ -7326,35 +7035,35 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:25">
       <c r="F109" s="2"/>
       <c r="G109" s="2">
         <v>359</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L109" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.MaxFrequencyThreshold</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
@@ -7371,22 +7080,22 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:25">
       <c r="F110" s="2"/>
       <c r="G110" s="2">
         <v>360</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7394,7 +7103,7 @@
       </c>
       <c r="M110" s="3"/>
       <c r="N110" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
@@ -7412,35 +7121,35 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:25">
       <c r="F111" s="2"/>
       <c r="G111" s="2">
         <v>361</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L111" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.MaxCurrentThreshold</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
@@ -7457,22 +7166,22 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:25">
       <c r="F112" s="2"/>
       <c r="G112" s="2">
         <v>362</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7480,7 +7189,7 @@
       </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
@@ -7498,22 +7207,22 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:25">
       <c r="F113" s="2"/>
       <c r="G113" s="2">
         <v>363</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7521,7 +7230,7 @@
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
@@ -7539,35 +7248,35 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:25">
       <c r="F114" s="2"/>
       <c r="G114" s="2">
         <v>364</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L114" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.ShortCircuitDelay</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
@@ -7584,35 +7293,35 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:25">
       <c r="F115" s="2"/>
       <c r="G115" s="2">
         <v>365</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L115" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.PowerReverseThreshold</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
@@ -7629,22 +7338,22 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:25">
       <c r="F116" s="2"/>
       <c r="G116" s="2">
         <v>366</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L116" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7652,7 +7361,7 @@
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
@@ -7670,35 +7379,35 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:25">
       <c r="F117" s="2"/>
       <c r="G117" s="2">
         <v>471</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L117" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.VoltageunbalanceThreshold</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
@@ -7715,22 +7424,22 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:25">
       <c r="F118" s="2"/>
       <c r="G118" s="2">
         <v>472</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L118" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7738,7 +7447,7 @@
       </c>
       <c r="M118" s="3"/>
       <c r="N118" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
@@ -7756,35 +7465,35 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:25">
       <c r="F119" s="2"/>
       <c r="G119" s="2">
         <v>473</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L119" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Generator.CurrentUnbalanceThreshold</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
@@ -7801,22 +7510,22 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:25">
       <c r="F120" s="2"/>
       <c r="G120" s="2">
         <v>474</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L120" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7824,7 +7533,7 @@
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
@@ -7842,22 +7551,22 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:25">
       <c r="F121" s="2"/>
       <c r="G121" s="2">
         <v>484</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L121" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7865,7 +7574,7 @@
       </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
@@ -7883,22 +7592,22 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:25">
       <c r="F122" s="2"/>
       <c r="G122" s="2">
         <v>492</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L122" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7906,7 +7615,7 @@
       </c>
       <c r="M122" s="3"/>
       <c r="N122" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
@@ -7924,22 +7633,22 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:25">
       <c r="F123" s="2"/>
       <c r="G123" s="2">
         <v>493</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -7947,7 +7656,7 @@
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -7965,35 +7674,35 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:25">
       <c r="F124" s="2"/>
       <c r="G124" s="2">
         <v>367</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L124" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.FrequencyOverspeedThreshold</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
@@ -8010,35 +7719,35 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:25">
       <c r="F125" s="2"/>
       <c r="G125" s="2">
         <v>368</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="L125" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.FrequencyOverspeedDelay</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
@@ -8055,35 +7764,35 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:25">
       <c r="F126" s="2"/>
       <c r="G126" s="2">
         <v>369</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L126" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.PickupOverspeedThreshold</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
@@ -8100,35 +7809,35 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:25">
       <c r="F127" s="2"/>
       <c r="G127" s="2">
         <v>370</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L127" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.PickupOverspeedDelay</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
@@ -8145,22 +7854,22 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:25">
       <c r="F128" s="2"/>
       <c r="G128" s="2">
         <v>371</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8168,7 +7877,7 @@
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
@@ -8186,22 +7895,22 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:25">
       <c r="F129" s="2"/>
       <c r="G129" s="2">
         <v>372</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L129" s="3" t="str">
         <f t="shared" si="1"/>
@@ -8209,7 +7918,7 @@
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
@@ -8227,35 +7936,35 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:25">
       <c r="F130" s="2"/>
       <c r="G130" s="2">
         <v>373</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L130" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Genset1.Engine.MaxCoolantTemperatureThreshold</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
@@ -8272,22 +7981,22 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:25">
       <c r="F131" s="2"/>
       <c r="G131" s="2">
         <v>374</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L131" s="3" t="str">
         <f t="shared" ref="L131:L168" si="2">_xlfn.TEXTJOIN(".",TRUE,I131,J131,K131)</f>
@@ -8295,7 +8004,7 @@
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
@@ -8313,35 +8022,35 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:25">
       <c r="F132" s="2"/>
       <c r="G132" s="2">
         <v>375</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L132" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.LowOilpressureThreshold</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
@@ -8358,22 +8067,22 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:25">
       <c r="F133" s="2"/>
       <c r="G133" s="2">
         <v>376</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8381,7 +8090,7 @@
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
@@ -8399,35 +8108,35 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:25">
       <c r="F134" s="2"/>
       <c r="G134" s="2">
         <v>377</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L134" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.MinOilPressureThreshold</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
@@ -8444,22 +8153,22 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:25">
       <c r="F135" s="2"/>
       <c r="G135" s="2">
         <v>378</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8467,7 +8176,7 @@
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
@@ -8485,35 +8194,35 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:25">
       <c r="F136" s="2"/>
       <c r="G136" s="2">
         <v>379</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L136" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.HighFuelLevelThreshold</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
@@ -8530,22 +8239,22 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:25">
       <c r="F137" s="2"/>
       <c r="G137" s="2">
         <v>380</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8553,7 +8262,7 @@
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
@@ -8571,35 +8280,35 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:25">
       <c r="F138" s="2"/>
       <c r="G138" s="2">
         <v>381</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L138" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.LowFuelLevelThreshold</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
@@ -8616,22 +8325,22 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:25">
       <c r="F139" s="2"/>
       <c r="G139" s="2">
         <v>382</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L139" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8639,7 +8348,7 @@
       </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
@@ -8657,35 +8366,35 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:25">
       <c r="F140" s="2"/>
       <c r="G140" s="2">
         <v>383</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L140" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.MinFuelLevelThreshold</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
@@ -8702,22 +8411,22 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:25">
       <c r="F141" s="2"/>
       <c r="G141" s="2">
         <v>384</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L141" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8725,7 +8434,7 @@
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
@@ -8743,22 +8452,22 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:25">
       <c r="F142" s="2"/>
       <c r="G142" s="2">
         <v>385</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L142" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8766,7 +8475,7 @@
       </c>
       <c r="M142" s="3"/>
       <c r="N142" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
@@ -8784,35 +8493,35 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:25">
       <c r="F143" s="2"/>
       <c r="G143" s="2">
         <v>529</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L143" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.MaxPowerThreshold</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
@@ -8829,22 +8538,22 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:25">
       <c r="F144" s="2"/>
       <c r="G144" s="2">
         <v>530</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L144" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8852,7 +8561,7 @@
       </c>
       <c r="M144" s="3"/>
       <c r="N144" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
@@ -8870,22 +8579,22 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:25">
       <c r="F145" s="2"/>
       <c r="G145" s="2">
         <v>538</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L145" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8893,7 +8602,7 @@
       </c>
       <c r="M145" s="3"/>
       <c r="N145" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -8911,22 +8620,22 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:25">
       <c r="F146" s="2"/>
       <c r="G146" s="2">
         <v>539</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L146" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8934,7 +8643,7 @@
       </c>
       <c r="M146" s="3"/>
       <c r="N146" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
@@ -8952,35 +8661,35 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:25">
       <c r="F147" s="2"/>
       <c r="G147" s="2">
         <v>1974</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L147" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.MinSpeedThreshold</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O147" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
@@ -8997,35 +8706,35 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:25">
       <c r="F148" s="2"/>
       <c r="G148" s="2">
         <v>1975</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="L148" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.MinSpeedDelay</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
@@ -9042,35 +8751,35 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:25">
       <c r="F149" s="2"/>
       <c r="G149" s="2">
         <v>387</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L149" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.LowBatteryVoltageThreshold</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
@@ -9087,22 +8796,22 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:25">
       <c r="F150" s="2"/>
       <c r="G150" s="2">
         <v>388</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9110,7 +8819,7 @@
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
@@ -9128,35 +8837,35 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:25">
       <c r="F151" s="2"/>
       <c r="G151" s="2">
         <v>389</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L151" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.HighBatteryVoltageThreshold</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
@@ -9173,22 +8882,22 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:25">
       <c r="F152" s="2"/>
       <c r="G152" s="2">
         <v>390</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L152" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9196,7 +8905,7 @@
       </c>
       <c r="M152" s="3"/>
       <c r="N152" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
@@ -9214,35 +8923,35 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:25">
       <c r="F153" s="2"/>
       <c r="G153" s="2">
         <v>391</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L153" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.HighBoardTemperatureThreshold</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
@@ -9259,22 +8968,22 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:25">
       <c r="F154" s="2"/>
       <c r="G154" s="2">
         <v>546</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L154" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9282,7 +8991,7 @@
       </c>
       <c r="M154" s="3"/>
       <c r="N154" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
@@ -9300,22 +9009,22 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:25">
       <c r="F155" s="2"/>
       <c r="G155" s="2">
         <v>392</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9323,7 +9032,7 @@
       </c>
       <c r="M155" s="3"/>
       <c r="N155" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
@@ -9341,22 +9050,22 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:25">
       <c r="F156" s="2"/>
       <c r="G156" s="2">
         <v>393</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L156" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9364,7 +9073,7 @@
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
@@ -9382,22 +9091,22 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:25">
       <c r="F157" s="2"/>
       <c r="G157" s="2">
         <v>394</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9405,7 +9114,7 @@
       </c>
       <c r="M157" s="3"/>
       <c r="N157" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
@@ -9423,22 +9132,22 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:25">
       <c r="F158" s="2"/>
       <c r="G158" s="2">
         <v>800</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9446,7 +9155,7 @@
       </c>
       <c r="M158" s="3"/>
       <c r="N158" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
@@ -9464,22 +9173,22 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:25">
       <c r="F159" s="2"/>
       <c r="G159" s="2">
         <v>801</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9487,7 +9196,7 @@
       </c>
       <c r="M159" s="3"/>
       <c r="N159" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
@@ -9505,22 +9214,22 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:25">
       <c r="F160" s="2"/>
       <c r="G160" s="2">
         <v>136</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L160" s="3" t="str">
         <f>_xlfn.TEXTJOIN(".",TRUE,I160,J160,K160)</f>
@@ -9528,7 +9237,7 @@
       </c>
       <c r="M160" s="3"/>
       <c r="N160" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
@@ -9546,22 +9255,22 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:25">
       <c r="F161" s="2"/>
       <c r="G161" s="2">
         <v>142</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L161" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9569,7 +9278,7 @@
       </c>
       <c r="M161" s="3"/>
       <c r="N161" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
@@ -9587,35 +9296,35 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:25">
       <c r="F162" s="2"/>
       <c r="G162" s="2">
         <v>73</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L162" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.BatteryVoltage</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
@@ -9632,22 +9341,22 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:25">
       <c r="F163" s="2"/>
       <c r="G163" s="2">
         <v>802</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L163" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9655,7 +9364,7 @@
       </c>
       <c r="M163" s="3"/>
       <c r="N163" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
@@ -9673,22 +9382,22 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:25">
       <c r="F164" s="2"/>
       <c r="G164" s="2">
         <v>803</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="L164" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9696,7 +9405,7 @@
       </c>
       <c r="M164" s="3"/>
       <c r="N164" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
@@ -9714,22 +9423,22 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:25">
       <c r="F165" s="2"/>
       <c r="G165" s="2">
         <v>107</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L165" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9737,10 +9446,10 @@
       </c>
       <c r="M165" s="3"/>
       <c r="N165" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
@@ -9759,22 +9468,22 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:25">
       <c r="F166" s="2"/>
       <c r="G166" s="2">
         <v>120</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L166" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9782,7 +9491,7 @@
       </c>
       <c r="M166" s="3"/>
       <c r="N166" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
@@ -9800,22 +9509,22 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:25">
       <c r="F167" s="2"/>
       <c r="G167" s="2">
         <v>132</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L167" s="3" t="str">
         <f t="shared" si="2"/>
@@ -9823,7 +9532,7 @@
       </c>
       <c r="M167" s="3"/>
       <c r="N167" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
@@ -9841,32 +9550,32 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:25">
       <c r="F168" s="2"/>
       <c r="G168" s="2">
         <v>71</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L168" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Genset1.Engine.RunningHours</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
@@ -9885,364 +9594,348 @@
       <c r="Y168" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G1:G67 G170:G1048576">
-    <cfRule type="duplicateValues" dxfId="137" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G161 G170:G1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G168 G170:G1048576">
-    <cfRule type="duplicateValues" dxfId="135" priority="65"/>
+  <conditionalFormatting sqref="G2:G67 G170:G1048576">
+    <cfRule type="duplicateValues" dxfId="137" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G161 G170:G1048576">
+    <cfRule type="duplicateValues" dxfId="136" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G69">
-    <cfRule type="duplicateValues" dxfId="134" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:G96">
-    <cfRule type="duplicateValues" dxfId="133" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:G133">
-    <cfRule type="duplicateValues" dxfId="132" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134:G135">
-    <cfRule type="duplicateValues" dxfId="131" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136:G145">
-    <cfRule type="duplicateValues" dxfId="130" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146">
-    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147:G148">
-    <cfRule type="duplicateValues" dxfId="128" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G149:G150">
-    <cfRule type="duplicateValues" dxfId="127" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151:G152">
-    <cfRule type="duplicateValues" dxfId="126" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153:G154">
-    <cfRule type="duplicateValues" dxfId="125" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G155">
-    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G156">
-    <cfRule type="duplicateValues" dxfId="123" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157">
-    <cfRule type="duplicateValues" dxfId="122" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G158">
-    <cfRule type="duplicateValues" dxfId="121" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159">
-    <cfRule type="duplicateValues" dxfId="120" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="duplicateValues" dxfId="119" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161">
-    <cfRule type="duplicateValues" dxfId="118" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="duplicateValues" dxfId="117" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163">
-    <cfRule type="duplicateValues" dxfId="115" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G164">
     <cfRule type="duplicateValues" dxfId="114" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G164">
-    <cfRule type="duplicateValues" dxfId="113" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G165">
     <cfRule type="duplicateValues" dxfId="112" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G165">
-    <cfRule type="duplicateValues" dxfId="111" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G166">
-    <cfRule type="duplicateValues" dxfId="109" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G167">
     <cfRule type="duplicateValues" dxfId="108" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G167">
-    <cfRule type="duplicateValues" dxfId="107" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168">
-    <cfRule type="duplicateValues" dxfId="105" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G169:G233">
-    <cfRule type="duplicateValues" dxfId="103" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G169:G327">
-    <cfRule type="duplicateValues" dxfId="102" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G169:G334">
-    <cfRule type="duplicateValues" dxfId="101" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:G233">
+    <cfRule type="duplicateValues" dxfId="104" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:G327">
+    <cfRule type="duplicateValues" dxfId="103" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:G334">
+    <cfRule type="duplicateValues" dxfId="102" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G170:G1048576 G2:G168">
+    <cfRule type="duplicateValues" dxfId="101" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G234:G235">
-    <cfRule type="duplicateValues" dxfId="100" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236:G262">
-    <cfRule type="duplicateValues" dxfId="99" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G263:G299">
-    <cfRule type="duplicateValues" dxfId="98" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300:G301">
-    <cfRule type="duplicateValues" dxfId="97" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G302:G311">
-    <cfRule type="duplicateValues" dxfId="96" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G312">
-    <cfRule type="duplicateValues" dxfId="95" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G313:G314">
-    <cfRule type="duplicateValues" dxfId="94" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G315:G316">
-    <cfRule type="duplicateValues" dxfId="93" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G317:G318">
-    <cfRule type="duplicateValues" dxfId="92" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G319:G320">
-    <cfRule type="duplicateValues" dxfId="91" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G321">
-    <cfRule type="duplicateValues" dxfId="90" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G322">
-    <cfRule type="duplicateValues" dxfId="89" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G323">
-    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G324">
-    <cfRule type="duplicateValues" dxfId="87" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G325">
-    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G326">
-    <cfRule type="duplicateValues" dxfId="85" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G327">
-    <cfRule type="duplicateValues" dxfId="84" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G328">
-    <cfRule type="duplicateValues" dxfId="83" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G329">
-    <cfRule type="duplicateValues" dxfId="81" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G330">
-    <cfRule type="duplicateValues" dxfId="79" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G331">
-    <cfRule type="duplicateValues" dxfId="77" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G332">
-    <cfRule type="duplicateValues" dxfId="75" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G333">
-    <cfRule type="duplicateValues" dxfId="73" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G334">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L67 L170:L1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L157 L170:L1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L168 L170:L1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L67 L170:L1048576">
+    <cfRule type="duplicateValues" dxfId="69" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L157 L170:L1048576">
+    <cfRule type="duplicateValues" dxfId="68" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L68:L135">
-    <cfRule type="duplicateValues" dxfId="66" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L136:L145">
-    <cfRule type="duplicateValues" dxfId="65" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L146">
-    <cfRule type="duplicateValues" dxfId="64" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L147:L148">
-    <cfRule type="duplicateValues" dxfId="63" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149:L150">
-    <cfRule type="duplicateValues" dxfId="62" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L151:L152">
-    <cfRule type="duplicateValues" dxfId="61" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153:L154">
-    <cfRule type="duplicateValues" dxfId="60" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="duplicateValues" dxfId="59" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L156">
-    <cfRule type="duplicateValues" dxfId="58" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="duplicateValues" dxfId="57" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L158">
-    <cfRule type="duplicateValues" dxfId="56" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L159">
-    <cfRule type="duplicateValues" dxfId="54" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L160">
-    <cfRule type="duplicateValues" dxfId="52" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L161">
-    <cfRule type="duplicateValues" dxfId="50" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L162">
-    <cfRule type="duplicateValues" dxfId="48" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L163">
-    <cfRule type="duplicateValues" dxfId="46" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L164">
-    <cfRule type="duplicateValues" dxfId="44" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L165">
-    <cfRule type="duplicateValues" dxfId="42" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L166">
-    <cfRule type="duplicateValues" dxfId="40" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L167">
-    <cfRule type="duplicateValues" dxfId="38" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L168">
-    <cfRule type="duplicateValues" dxfId="36" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L233">
-    <cfRule type="duplicateValues" dxfId="34" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L323">
-    <cfRule type="duplicateValues" dxfId="33" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L334">
-    <cfRule type="duplicateValues" dxfId="32" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L170:L233">
+    <cfRule type="duplicateValues" dxfId="35" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L170:L323">
+    <cfRule type="duplicateValues" dxfId="34" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L170:L334">
+    <cfRule type="duplicateValues" dxfId="33" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L170:L1048576 L2:L168">
+    <cfRule type="duplicateValues" dxfId="32" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L234:L301">
-    <cfRule type="duplicateValues" dxfId="31" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L302:L311">
-    <cfRule type="duplicateValues" dxfId="30" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L312">
-    <cfRule type="duplicateValues" dxfId="29" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L313:L314">
-    <cfRule type="duplicateValues" dxfId="28" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315:L316">
-    <cfRule type="duplicateValues" dxfId="27" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L317:L318">
-    <cfRule type="duplicateValues" dxfId="26" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L319:L320">
-    <cfRule type="duplicateValues" dxfId="25" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L321">
-    <cfRule type="duplicateValues" dxfId="24" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L322">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L323">
-    <cfRule type="duplicateValues" dxfId="22" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L324">
-    <cfRule type="duplicateValues" dxfId="21" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L325">
-    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L326">
-    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L327">
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L328">
-    <cfRule type="duplicateValues" dxfId="13" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L329">
-    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L330">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L332">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L333">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L334">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1:D1" xr:uid="{99908DE3-0897-4786-8266-BC64C813998A}"/>
-  </dataValidations>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>